--- a/version.final/time_attendance/517100-2567-1-Computer Programing 1.xlsx
+++ b/version.final/time_attendance/517100-2567-1-Computer Programing 1.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>06:22:24</t>
+          <t>06:42:21</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05:13:31</t>
+          <t>06:38:57</t>
         </is>
       </c>
     </row>

--- a/version.final/time_attendance/517100-2567-1-Computer Programing 1.xlsx
+++ b/version.final/time_attendance/517100-2567-1-Computer Programing 1.xlsx
@@ -536,6 +536,16 @@
           <t>นายธนัวต ศิลป์สะอาด</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -546,6 +556,16 @@
           <t>นางสาวกรณิการ์ เต้นลือ</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -556,6 +576,16 @@
           <t>นายอัครพนธ์ อุดมทรัพย์</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -566,6 +596,16 @@
           <t>นางสาวสุภัทรา เค้าสำราญ</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -576,6 +616,16 @@
           <t>นายเจษฎาพร อมรจิตรเวชกุล</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -586,6 +636,16 @@
           <t>นางสาวดวงพร โคตมี</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -596,6 +656,16 @@
           <t>นางสาวธมกร นันทเศรษฐสิริ</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -606,6 +676,16 @@
           <t>นายภูริภัทร ลิสอน</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -616,6 +696,16 @@
           <t>นายจักรภพ ภูมิพัฒน์</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -628,12 +718,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>22/11/2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>06:42:21</t>
+          <t>11:06:13</t>
         </is>
       </c>
     </row>
@@ -646,6 +736,16 @@
           <t>นายพฤกษินันท์ คำระหงษ์</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -676,6 +776,16 @@
           <t>นายรชต กระเช้าเพ็ชร์</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -686,6 +796,16 @@
           <t>นางสาวอธิชา กิจเจริญ</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -696,6 +816,16 @@
           <t>นายณัฐสิทธิ์ หุ่นปั้น</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -706,6 +836,16 @@
           <t>นายจักรพรรดิ โพธิพิภัทรกุล</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -716,6 +856,16 @@
           <t>นายกฤตเมธ ไทยภักดี</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -746,6 +896,16 @@
           <t>นายณัฐพงศ์ อวชัย</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -756,6 +916,16 @@
           <t>นางสาวธนัญญา พรมภักดี</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -766,6 +936,16 @@
           <t>นายนวภูมิ ปั้นหลวง</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -776,6 +956,16 @@
           <t>นายปิยวัฒน์ เดียนประไพ</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -786,6 +976,16 @@
           <t>นายภัทรดนัย คนชม</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -796,6 +996,16 @@
           <t>นางสาวศุภิสรา สอนดี</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -806,6 +1016,16 @@
           <t>นายภัทรกฤต สังครบ</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -816,6 +1036,16 @@
           <t>นายอังกฤษ ถ้ำสุวรรณ</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -826,6 +1056,16 @@
           <t>นางสาวณัฐณิชา ภู่วงษ์</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -836,6 +1076,16 @@
           <t>นายสิรวิชญ์ เชี่ยวชาญ</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -846,6 +1096,16 @@
           <t>นางสาวณัฐสุรางค์ ชาติทองคำ</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -856,6 +1116,16 @@
           <t>นางสาวพิชญธิดา รักดี</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -866,6 +1136,16 @@
           <t>นางสาวอชิรญา สมใจ</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -876,6 +1156,16 @@
           <t>นายชาญวุฒิ งามยิ่ง</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -886,6 +1176,16 @@
           <t>นายณัฐชนน รักวงศ์</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -896,6 +1196,16 @@
           <t>นายวรท ลักษณะ</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -904,6 +1214,16 @@
       <c r="B38" t="inlineStr">
         <is>
           <t>นางสาวอาธารดา พรหมแทนสุด</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ขาดสอบ</t>
         </is>
       </c>
     </row>
